--- a/lab_list.xlsx
+++ b/lab_list.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://depauledu-my.sharepoint.com/personal/achalumu_depaul_edu/Documents/biofilm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DBA05BC-68CF-F14F-AA85-D0202C1ED141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3DBA05BC-68CF-F14F-AA85-D0202C1ED141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1580F331-5521-5442-BC1B-CCD0F532360D}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{9B2AA474-FB1F-2944-B427-439AD83AE912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$45</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -774,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6B4795-553C-4E4D-9410-7665F94A806F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1450,6 +1453,7 @@
       <c r="A47" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E45" xr:uid="{0E6B4795-553C-4E4D-9410-7665F94A806F}"/>
   <mergeCells count="1">
     <mergeCell ref="A46:A47"/>
   </mergeCells>
